--- a/documents/doksi.xlsx
+++ b/documents/doksi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\access_user_level\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DB0DB5-BB45-43A2-A580-8E88B4F09C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5FA83-8C99-4878-AD7A-A8FD512027ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="-16410" windowWidth="29040" windowHeight="15840" xr2:uid="{C6BF757B-DC8B-433A-8332-C93E01C8847F}"/>
+    <workbookView xWindow="-10980" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{C6BF757B-DC8B-433A-8332-C93E01C8847F}"/>
   </bookViews>
   <sheets>
     <sheet name="Összerakni" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>vásárlásokat nézhet (purchases)</t>
   </si>
@@ -101,9 +101,6 @@
     <t>MASK_LOGIN</t>
   </si>
   <si>
-    <t>MASK_ITEMS_MANAGAMENT</t>
-  </si>
-  <si>
     <t>CONST</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>MASK_ITEMS_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>MASK_EXIT</t>
+  </si>
+  <si>
+    <t>kilépés</t>
   </si>
 </sst>
 </file>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6FD242-92A9-4BD2-9518-4408B15629A3}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>14</v>
@@ -795,7 +801,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -829,21 +835,27 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0b10000000</v>
       </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1080,26 +1092,26 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G19" s="4">
         <f>SUMPRODUCT($C$2:$C$17,G2:G17)</f>
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="H19" s="4">
         <f>SUMPRODUCT($C$2:$C$17,H2:H17)</f>
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="I19" s="4">
         <f>SUMPRODUCT($C$2:$C$17,I2:I17)</f>
@@ -1107,17 +1119,17 @@
       </c>
       <c r="J19" s="4">
         <f>SUMPRODUCT($C$2:$C$17,J2:J17)</f>
-        <v>109</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G20" s="5" t="str">
         <f>DEC2BIN(G19)</f>
-        <v>100011</v>
+        <v>10100011</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" ref="H20:J20" si="3">DEC2BIN(H19)</f>
-        <v>10001</v>
+        <v>10010001</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1125,7 +1137,7 @@
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>1101101</v>
+        <v>11101101</v>
       </c>
     </row>
   </sheetData>
@@ -1136,25 +1148,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F241304-73B3-4EAF-B8AB-2530F40865C7}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>15</v>
+      <c r="A1" s="8" t="str">
+        <f>Összerakni!D2</f>
+        <v>MASK_ITEMS_VIEW</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>VLOOKUP(A1,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1166,27 +1180,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
+      <c r="A2" s="8" t="str">
+        <f>Összerakni!D3</f>
+        <v>MASK_BUYING</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(A2,Összerakni!$D$2:$E$17,2,0)</f>
         <v>0b10</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="0">"const "&amp;A2&amp;"="&amp;C2&amp;";"</f>
+        <f t="shared" ref="H2:H8" si="0">"const "&amp;A2&amp;"="&amp;C2&amp;";"</f>
         <v>const MASK_BUYING=0b10;</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
+      <c r="A3" s="8" t="str">
+        <f>Összerakni!D4</f>
+        <v>MASK_PURCHASES</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(A3,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1198,11 +1214,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
+      <c r="A4" s="8" t="str">
+        <f>Összerakni!D5</f>
+        <v>MASK_USERS_MANAGAMENT</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(A4,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1214,11 +1231,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
+      <c r="A5" s="8" t="str">
+        <f>Összerakni!D6</f>
+        <v>MASK_REGISTRATION</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(A5,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1230,11 +1248,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
+      <c r="A6" s="8" t="str">
+        <f>Összerakni!D7</f>
+        <v>MASK_LOGIN</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(A6,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1246,11 +1265,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
+      <c r="A7" s="8" t="str">
+        <f>Összerakni!D8</f>
+        <v>MASK_ITEMS_MANAGEMENT</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(A7,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1258,7 +1278,96 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>const MASK_ITEMS_MANAGAMENT=0b1000000;</v>
+        <v>const MASK_ITEMS_MANAGEMENT=0b1000000;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
+        <f>Összerakni!D9</f>
+        <v>MASK_EXIT</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(A8,Összerakni!$D$2:$E$17,2,0)</f>
+        <v>0b10000000</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>const MASK_EXIT=0b10000000;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>Összerakni!D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>Összerakni!D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>Összerakni!D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>Összerakni!D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>Összerakni!D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>Összerakni!D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>Összerakni!D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>Összerakni!D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>Összerakni!D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>Összerakni!D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>Összerakni!D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>Összerakni!D21</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1283,42 +1392,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1">
         <f>HLOOKUP(A1,Összerakni!$G$18:$Q$19,2,0)</f>
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="H1" t="str">
         <f>"const "&amp;A1&amp;"="&amp;C1&amp;";"</f>
-        <v>const ACCESS_USER=35;</v>
+        <v>const ACCESS_USER=163;</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <f>HLOOKUP(A2,Összerakni!$G$18:$Q$19,2,0)</f>
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H4" si="0">"const "&amp;A2&amp;"="&amp;C2&amp;";"</f>
-        <v>const ACCESS_GUEST=17;</v>
+        <v>const ACCESS_GUEST=145;</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <f>HLOOKUP(A3,Összerakni!$G$18:$Q$19,2,0)</f>
@@ -1331,18 +1440,18 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C4">
         <f>HLOOKUP(A4,Összerakni!$G$18:$Q$19,2,0)</f>
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>const ACCESS_ADMIN=109;</v>
+        <v>const ACCESS_ADMIN=237;</v>
       </c>
     </row>
   </sheetData>

--- a/documents/doksi.xlsx
+++ b/documents/doksi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\access_user_level\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5FA83-8C99-4878-AD7A-A8FD512027ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA61127D-A481-4FBE-9A1C-14FE01F8509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10980" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{C6BF757B-DC8B-433A-8332-C93E01C8847F}"/>
+    <workbookView xWindow="-1425" yWindow="-14355" windowWidth="15585" windowHeight="10410" xr2:uid="{C6BF757B-DC8B-433A-8332-C93E01C8847F}"/>
   </bookViews>
   <sheets>
     <sheet name="Összerakni" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>MASK_PURCHASES</t>
   </si>
   <si>
-    <t>MASK_USERS_MANAGAMENT</t>
-  </si>
-  <si>
     <t>MASK_REGISTRATION</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>kilépés</t>
+  </si>
+  <si>
+    <t>MASK_USERS_MANAGEMENT</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6FD242-92A9-4BD2-9518-4408B15629A3}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>14</v>
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -731,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -766,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -836,14 +836,14 @@
         <v>128</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0b10000000</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1092,16 +1092,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H19" s="4">
         <f>SUMPRODUCT($C$2:$C$17,H2:H17)</f>
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="I19" s="4">
         <f>SUMPRODUCT($C$2:$C$17,I2:I17)</f>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" ref="H20:J20" si="3">DEC2BIN(H19)</f>
-        <v>10010001</v>
+        <v>10110001</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F241304-73B3-4EAF-B8AB-2530F40865C7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1168,7 @@
         <v>MASK_ITEMS_VIEW</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>VLOOKUP(A1,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1185,7 +1185,7 @@
         <v>MASK_BUYING</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(A2,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1202,7 +1202,7 @@
         <v>MASK_PURCHASES</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(A3,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1216,10 +1216,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>Összerakni!D5</f>
-        <v>MASK_USERS_MANAGAMENT</v>
+        <v>MASK_USERS_MANAGEMENT</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(A4,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>const MASK_USERS_MANAGAMENT=0b1000;</v>
+        <v>const MASK_USERS_MANAGEMENT=0b1000;</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>MASK_REGISTRATION</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(A5,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1253,7 +1253,7 @@
         <v>MASK_LOGIN</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(A6,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1270,7 +1270,7 @@
         <v>MASK_ITEMS_MANAGEMENT</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(A7,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1287,7 +1287,7 @@
         <v>MASK_EXIT</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(A8,Összerakni!$D$2:$E$17,2,0)</f>
@@ -1388,14 +1388,15 @@
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <f>HLOOKUP(A1,Összerakni!$G$18:$Q$19,2,0)</f>
@@ -1408,26 +1409,26 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <f>HLOOKUP(A2,Összerakni!$G$18:$Q$19,2,0)</f>
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H4" si="0">"const "&amp;A2&amp;"="&amp;C2&amp;";"</f>
-        <v>const ACCESS_GUEST=145;</v>
+        <v>const ACCESS_GUEST=177;</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <f>HLOOKUP(A3,Összerakni!$G$18:$Q$19,2,0)</f>
@@ -1440,10 +1441,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C4">
         <f>HLOOKUP(A4,Összerakni!$G$18:$Q$19,2,0)</f>
